--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,12 +542,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000004</t>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>선택지1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -556,30 +556,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000005.1</t>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>선택지2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MapNpcData.MapNpcMenu.1000005.2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>컷신2 재생</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000002.1</t>
+          <t>CutsceneData.Cutscene.1000000.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000002.2</t>
+          <t>CutsceneData.Cutscene.1000000.2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000003.4</t>
+          <t>CutsceneData.Cutscene.1000001.4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000003.5</t>
+          <t>CutsceneData.Cutscene.1000001.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneGroup.1000000</t>
+          <t>CutsceneData.CutsceneInfo.1000000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneGroup.1000001</t>
+          <t>CutsceneData.CutsceneInfo.1000001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.CutsceneSelection.1000002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.CutsceneSelection.1000003</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,48 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000004</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>솔라리</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000005.1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000005.2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000000.1</t>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ShowDialog</t>
+          <t>컷신1 재성</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -472,142 +472,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000000.2</t>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ShowDialogFlipped</t>
+          <t>컷신2 재생</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CutsceneData.Cutscene.1000001.4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ShowDialog</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CutsceneData.Cutscene.1000001.5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ShowDialogFlipped</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CutsceneData.CutsceneInfo.1000000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>컷신이름1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CutsceneData.CutsceneInfo.1000001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>컷신이름2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CutsceneData.CutsceneSelection.1000002</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>선택지1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CutsceneData.CutsceneSelection.1000003</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>선택지2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ItemData.Item.1000004</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>솔라리</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MapNpcData.MapNpcMenu.1000005.1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>컷신1 재성</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MapNpcData.MapNpcMenu.1000005.2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>컷신2 재생</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>CharacterData.CharacterInfo.1000003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>테스트용 캐릭터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -472,16 +472,114 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>CutsceneData.Cutscene.1000001.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>ShowDialog</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000001.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ShowDialogFlipped</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000002.4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ShowDialog</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000002.5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ShowDialogFlipped</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneInfo.1000001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>컷신이름1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneInfo.1000002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>컷신이름2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>선택지1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>선택지2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,48 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000006</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>솔라리</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,12 +598,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -612,16 +612,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>LoadingData.Loading.1000008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CharacterData.CharacterInfo.1000003</t>
+          <t>CharacterData.CharacterInfo.1000011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>테스트용 캐릭터</t>
+          <t>새턴</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -472,12 +472,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000001.1</t>
+          <t>CharacterData.CharacterInfo.1000012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ShowDialog</t>
+          <t>슬라임</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -486,12 +486,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000001.2</t>
+          <t>CutsceneData.Cutscene.1000001.1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ShowDialogFlipped</t>
+          <t>ShowDialog</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -500,12 +500,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000002.4</t>
+          <t>CutsceneData.Cutscene.1000001.2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ShowDialog</t>
+          <t>ShowDialogFlipped</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000002.5</t>
+          <t>CutsceneData.Cutscene.1000002.4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ShowDialogFlipped</t>
+          <t>ShowDialog</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneInfo.1000001</t>
+          <t>CutsceneData.Cutscene.1000002.5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>컷신이름1</t>
+          <t>ShowDialogFlipped</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -542,12 +542,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneInfo.1000002</t>
+          <t>CutsceneData.Cutscene.1000010.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>컷신이름2</t>
+          <t>이건 뭐지?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -556,12 +556,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.Cutscene.1000010.2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>선택지1</t>
+          <t>보글보글</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -570,12 +570,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.Cutscene.1000010.3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>선택지2</t>
+          <t>…</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -584,12 +584,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>선택지1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -598,12 +598,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>선택지2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -612,12 +612,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>ItemData.Item.1000006</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>솔라리</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -626,12 +626,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -640,16 +640,72 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>LoadingData.Loading.1000008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>말걸기</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -575,7 +575,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>…</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.Cutscene.1000013.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>선택지1</t>
+          <t>똑똑, 똑똑!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -598,12 +598,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.Cutscene.1000013.2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>선택지2</t>
+          <t>편지 왔어요!</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -612,12 +612,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>CutsceneData.Cutscene.1000013.3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>먼저 받으시는 분 성함을 확인할께요.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -626,12 +626,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>CutsceneData.Cutscene.1000013.4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>새턴…</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -640,12 +640,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>CutsceneData.Cutscene.1000013.6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>새턴 위치우드씨..? 
+제가 맞게 찾아왔길 바랍니다..</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -654,12 +655,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>CutsceneData.Cutscene.1000013.7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>맞다면 여기, 등기로 온 문서가 있으니 서명해주시겠어요?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -668,12 +669,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>CutsceneData.Cutscene.1000013.8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -682,12 +683,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>CutsceneData.Cutscene.1000013.9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>맞아! 세번째 시도만에 합격이야!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -696,16 +697,156 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t>선택지1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>선택지2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000014</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>맞아</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000015</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>글쎄?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000006</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>솔라리</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LoadingData.Loading.1000007</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LoadingData.Loading.1000008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>말걸기</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,12 +767,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>ItemData.Item.1000018</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>스틱</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -781,12 +781,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>ItemData.Item.1000019</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>파우더</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -795,12 +795,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>ItemData.Item.1000020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>버블건</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -809,12 +809,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>ItemData.Item.1000021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>그라인더</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -823,12 +823,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>ItemData.Item.1000022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>펜던트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -837,16 +837,86 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LoadingData.Loading.1000008</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>말걸기</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,12 +697,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.Cutscene.1000013.10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>선택지1</t>
+          <t>축하드립니다! 
+이제 어엿한 마법소녀라고 할 수 있겠네요!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -711,12 +712,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>선택지2</t>
+          <t>선택지1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -725,12 +726,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000014</t>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>맞아</t>
+          <t>선택지2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -739,12 +740,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000015</t>
+          <t>CutsceneData.CutsceneSelection.1000014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>글쎄?</t>
+          <t>맞아</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -753,12 +754,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>CutsceneData.CutsceneSelection.1000015</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>글쎄?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -767,12 +768,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000018</t>
+          <t>ItemData.Item.1000006</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>스틱</t>
+          <t>솔라리</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -781,12 +782,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000019</t>
+          <t>ItemData.Item.1000018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>파우더</t>
+          <t>스틱</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -795,12 +796,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000020</t>
+          <t>ItemData.Item.1000019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>버블건</t>
+          <t>파우더</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -809,12 +810,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000021</t>
+          <t>ItemData.Item.1000020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>그라인더</t>
+          <t>버블건</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -823,12 +824,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000022</t>
+          <t>ItemData.Item.1000021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>펜던트</t>
+          <t>그라인더</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -837,12 +838,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>ItemData.Item.1000022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>펜던트</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -851,12 +852,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -865,12 +866,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>LoadingData.Loading.1000008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -879,12 +880,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>컷신1 재성</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -893,12 +894,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>컷신2 재생</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -907,16 +908,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t>말걸기</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,13 +697,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.10</t>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>축하드립니다! 
-이제 어엿한 마법소녀라고 할 수 있겠네요!</t>
+          <t>선택지1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -712,12 +711,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>선택지1</t>
+          <t>선택지2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -726,12 +725,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.CutsceneSelection.1000014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>선택지2</t>
+          <t>맞아</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -740,12 +739,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000014</t>
+          <t>CutsceneData.CutsceneSelection.1000015</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>맞아</t>
+          <t>글쎄?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -754,12 +753,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000015</t>
+          <t>ItemData.Item.1000006</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>글쎄?</t>
+          <t>솔라리</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -768,12 +767,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>ItemData.Item.1000018</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>스틱</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -782,12 +781,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000018</t>
+          <t>ItemData.Item.1000019</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>스틱</t>
+          <t>파우더</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -796,12 +795,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000019</t>
+          <t>ItemData.Item.1000020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>파우더</t>
+          <t>버블건</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -810,12 +809,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000020</t>
+          <t>ItemData.Item.1000021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>버블건</t>
+          <t>그라인더</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -824,12 +823,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000021</t>
+          <t>ItemData.Item.1000022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>그라인더</t>
+          <t>펜던트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -838,12 +837,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000022</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>펜던트</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -852,12 +851,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>LoadingData.Loading.1000008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -866,12 +865,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>컷신1 재성</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -880,12 +879,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>컷신2 재생</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -894,12 +893,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>말걸기</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -908,30 +907,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>미니게임 시작</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>미니게임 시작</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,12 +697,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.Cutscene.1000013.10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>선택지1</t>
+          <t>축하드립니다!
+이제 어엿한 마법소녀라고 할 수 있겠네요.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -711,12 +712,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>선택지2</t>
+          <t>선택지1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -725,12 +726,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000014</t>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>맞아</t>
+          <t>선택지2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -739,12 +740,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000015</t>
+          <t>CutsceneData.CutsceneSelection.1000014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>글쎄?</t>
+          <t>맞아</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -753,12 +754,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>CutsceneData.CutsceneSelection.1000015</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>글쎄?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -767,12 +768,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000018</t>
+          <t>ItemData.Item.1000006</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>스틱</t>
+          <t>솔라리</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -781,12 +782,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000019</t>
+          <t>ItemData.Item.1000018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>파우더</t>
+          <t>스틱</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -795,12 +796,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000020</t>
+          <t>ItemData.Item.1000019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>버블건</t>
+          <t>파우더</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -809,12 +810,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000021</t>
+          <t>ItemData.Item.1000020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>그라인더</t>
+          <t>버블건</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -823,12 +824,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000022</t>
+          <t>ItemData.Item.1000021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>펜던트</t>
+          <t>그라인더</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -837,12 +838,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>ItemData.Item.1000022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>펜던트</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -851,12 +852,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -865,12 +866,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>LoadingData.Loading.1000008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -879,12 +880,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t>컷신1 재성</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -893,12 +894,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>컷신2 재생</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -907,16 +908,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t>말걸기</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,12 +712,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000004</t>
+          <t>CutsceneData.Cutscene.1000013.11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>선택지1</t>
+          <t>신비한 재료 역학 과목은 꼼짝없이 과락일 줄 알았어..</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -726,12 +726,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000005</t>
+          <t>CutsceneData.Cutscene.1000013.12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>선택지2</t>
+          <t>마법기계 제도의 기초나.. 그리고… 실용 수학도요…</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -740,12 +740,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000014</t>
+          <t>CutsceneData.Cutscene.1000013.13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>맞아</t>
+          <t>저런! 위험했네요!</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -754,12 +754,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000015</t>
+          <t>CutsceneData.Cutscene.1000013.14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>글쎄?</t>
+          <t>그치만 리본&amp;레이스 연금술이나 마녀의 디저트 베이킹은 틀림없이 최고였을걸요!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -768,12 +768,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>CutsceneData.Cutscene.1000013.15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>그랬으리라 믿어 의심치 않아요.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -782,12 +782,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000018</t>
+          <t>CutsceneData.Cutscene.1000013.16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>스틱</t>
+          <t>서명은 여기다 하면 되죠?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -796,12 +796,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000019</t>
+          <t>CutsceneData.Cutscene.1000013.19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>파우더</t>
+          <t>짜잔!</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -810,12 +810,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000020</t>
+          <t>CutsceneData.Cutscene.1000013.20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>버블건</t>
+          <t>확실히 받았습니다.
+귀여운 마법봉이네요!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -824,12 +825,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000021</t>
+          <t>CutsceneData.Cutscene.1000013.21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>그라인더</t>
+          <t xml:space="preserve"> 
+헤헤... 아르바이트로 번 돈을 모조리 쏟아부었거든요…</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -838,12 +840,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000022</t>
+          <t>CutsceneData.Cutscene.1000013.22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>펜던트</t>
+          <t xml:space="preserve"> 
+덕분에 빈털터리예요..</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -852,12 +855,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>CutsceneData.Cutscene.1000013.23</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t xml:space="preserve"> 
+그랬군요! 이제 정식으로 마법을 사용할 수 있으니 훌륭한 일자리를 구할 거예요.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -866,12 +870,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>CutsceneData.Cutscene.1000013.24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t xml:space="preserve"> 
+마법으로 돌아가는 공장을 차리면 일을 안해도 금을 갈퀴로 쓸어모은다죠? 경력을 쌓아서 마법산업청에 들어가면 명예와 권력을 한 손에 쥘 수도 있고요!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -880,12 +885,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+          <t>CutsceneData.Cutscene.1000013.25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>컷신1 재성</t>
+          <t xml:space="preserve"> 
+아아! 마법사의 재능이란 아름다워라!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -894,12 +900,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+          <t>CutsceneData.Cutscene.1000013.26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>컷신2 재생</t>
+          <t xml:space="preserve"> 
+그래서 당신은 앞으로 무슨 일을 할 건가요, 마법소녀 새턴?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -908,12 +915,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>CutsceneData.Cutscene.1000013.27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t xml:space="preserve"> 
+아르바이트! 더 많은 아르바이트를 할 거예요!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -922,16 +930,315 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>CutsceneData.Cutscene.1000013.28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t xml:space="preserve">
+...삐삑?!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000013.29</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+아차, 실수로 모국어로 말해버렸네요.
+그래요. 음. 아르바이트.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000013.30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+그럼 서명은 잘 받았고... 여기, 당신 앞으로 온 편지들이에요.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000013.31</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>고마워요!</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000013.32</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+그럼, 파트타임 마법소녀! 멋진 인생이 되길!</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CutsceneData.Cutscene.1000013.35</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>날아갔다…</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000004</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>선택지1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000005</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>선택지2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000014</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>맞아</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CutsceneData.CutsceneSelection.1000015</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>글쎄?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000006</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>솔라리</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000018</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>스틱</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000019</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>파우더</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000020</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>버블건</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>그라인더</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ItemData.Item.1000022</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>펜던트</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LoadingData.Loading.1000007</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LoadingData.Loading.1000008</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>컷신1 재성</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000000.2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>컷신2 재생</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>말걸기</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-client/lunaria-data-json/data/_meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD490916-A76D-EF4A-8A26-46D74379C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02519854-003A-0F4C-8C1B-519805CF312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalData" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>key</t>
   </si>
@@ -745,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1215,40 +1214,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918DA65A-8D4F-2248-AD81-2242AFC97AC0}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,6 +1128,20 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000023.1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>마이홈 돌아가기</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,20 +1128,6 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MapNpcData.MapNpcMenu.1000023.1</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>마이홈 돌아가기</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,12 +1103,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>LoadingData.Loading.1000027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>솜사탕상점 로딩화면</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1117,16 +1117,58 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>LoadingData.Loading.1000028</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t>파우더상점 로딩화면</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LoadingData.Loading.1000029</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>이불상점 로딩화면</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>말걸기</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,12 +486,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000010.1</t>
+          <t>CharacterData.CharacterInfo.1000032</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이건 뭐지?</t>
+          <t>리피</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -500,12 +500,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000010.2</t>
+          <t>CutsceneData.Cutscene.1000010.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>보글보글</t>
+          <t>이건 뭐지?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000010.3</t>
+          <t>CutsceneData.Cutscene.1000010.2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>보글보글</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.1</t>
+          <t>CutsceneData.Cutscene.1000010.3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>똑똑, 똑똑!</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -542,12 +542,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.2</t>
+          <t>CutsceneData.Cutscene.1000013.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>편지 왔어요!</t>
+          <t>똑똑, 똑똑!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -556,12 +556,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.3</t>
+          <t>CutsceneData.Cutscene.1000013.2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>먼저 받으시는 분 성함을 확인할께요.</t>
+          <t>편지 왔어요!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -570,12 +570,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.4</t>
+          <t>CutsceneData.Cutscene.1000013.3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>새턴…</t>
+          <t>먼저 받으시는 분 성함을 확인할께요.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -584,41 +584,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>CutsceneData.Cutscene.1000013.4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>새턴…</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>CutsceneData.Cutscene.1000013.6</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>새턴 위치우드씨..? 
 제가 맞게 찾아왔길 바랍니다..</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CutsceneData.Cutscene.1000013.7</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>맞다면 여기, 등기로 온 문서가 있으니 서명해주시겠어요?</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.8</t>
+          <t>CutsceneData.Cutscene.1000013.7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
+          <t>맞다면 여기, 등기로 온 문서가 있으니 서명해주시겠어요?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -627,12 +627,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.9</t>
+          <t>CutsceneData.Cutscene.1000013.8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>맞아! 세번째 시도만에 합격이야!</t>
+          <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -641,41 +641,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>CutsceneData.Cutscene.1000013.9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>맞아! 세번째 시도만에 합격이야!</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>CutsceneData.Cutscene.1000013.10</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>축하드립니다!
 이제 어엿한 마법소녀라고 할 수 있겠네요.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CutsceneData.Cutscene.1000013.11</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>신비한 재료 역학 과목은 꼼짝없이 과락일 줄 알았어..</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.12</t>
+          <t>CutsceneData.Cutscene.1000013.11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>마법기계 제도의 기초나.. 그리고… 실용 수학도요…</t>
+          <t>신비한 재료 역학 과목은 꼼짝없이 과락일 줄 알았어..</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -684,12 +684,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.13</t>
+          <t>CutsceneData.Cutscene.1000013.12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>저런! 위험했네요!</t>
+          <t>마법기계 제도의 기초나.. 그리고… 실용 수학도요…</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -698,12 +698,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.14</t>
+          <t>CutsceneData.Cutscene.1000013.13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>그치만 리본&amp;레이스 연금술이나 마녀의 디저트 베이킹은 틀림없이 최고였을걸요!</t>
+          <t>저런! 위험했네요!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -712,12 +712,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.15</t>
+          <t>CutsceneData.Cutscene.1000013.14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>그랬으리라 믿어 의심치 않아요.</t>
+          <t>그치만 리본&amp;레이스 연금술이나 마녀의 디저트 베이킹은 틀림없이 최고였을걸요!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -726,12 +726,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.16</t>
+          <t>CutsceneData.Cutscene.1000013.15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>서명은 여기다 하면 되죠?</t>
+          <t>그랬으리라 믿어 의심치 않아요.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -740,12 +740,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CutsceneData.Cutscene.1000013.19</t>
+          <t>CutsceneData.Cutscene.1000013.16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>짜잔!</t>
+          <t>서명은 여기다 하면 되죠?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -754,221 +754,221 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>CutsceneData.Cutscene.1000013.19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>짜잔!</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>CutsceneData.Cutscene.1000013.20</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>확실히 받았습니다.
 귀여운 마법봉이네요!</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.21</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 헤헤... 아르바이트로 번 돈을 모조리 쏟아부었거든요…</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.22</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 덕분에 빈털터리예요..</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.23</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 그랬군요! 이제 정식으로 마법을 사용할 수 있으니 훌륭한 일자리를 구할 거예요.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.24</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 마법으로 돌아가는 공장을 차리면 일을 안해도 금을 갈퀴로 쓸어모은다죠? 경력을 쌓아서 마법산업청에 들어가면 명예와 권력을 한 손에 쥘 수도 있고요!</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.25</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 아아! 마법사의 재능이란 아름다워라!</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.26</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 그래서 당신은 앞으로 무슨 일을 할 건가요, 마법소녀 새턴?</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.27</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 아르바이트! 더 많은 아르바이트를 할 거예요!</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.28</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ...삐삑?!</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.29</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 아차, 실수로 모국어로 말해버렸네요.
 그래요. 음. 아르바이트.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CutsceneData.Cutscene.1000013.30</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 그럼 서명은 잘 받았고... 여기, 당신 앞으로 온 편지들이에요.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CutsceneData.Cutscene.1000013.31</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>고마워요!</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>CutsceneData.Cutscene.1000013.31</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>고마워요!</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>CutsceneData.Cutscene.1000013.32</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 그럼, 파트타임 마법소녀! 멋진 인생이 되길!</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CutsceneData.Cutscene.1000013.35</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>날아갔다…</t>
-        </is>
-      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000014</t>
+          <t>CutsceneData.Cutscene.1000013.35</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>맞아</t>
+          <t>날아갔다…</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -977,12 +977,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CutsceneData.CutsceneSelection.1000015</t>
+          <t>CutsceneData.CutsceneSelection.1000014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>글쎄?</t>
+          <t>맞아</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -991,12 +991,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000006</t>
+          <t>CutsceneData.CutsceneSelection.1000015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>솔라리</t>
+          <t>글쎄?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1005,12 +1005,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000018</t>
+          <t>ItemData.Item.1000006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>스틱</t>
+          <t>솔라리</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1019,12 +1019,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000019</t>
+          <t>ItemData.Item.1000018</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>파우더</t>
+          <t>스틱</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000020</t>
+          <t>ItemData.Item.1000019</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>버블건</t>
+          <t>파우더</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1047,12 +1047,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000021</t>
+          <t>ItemData.Item.1000020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>그라인더</t>
+          <t>버블건</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1061,12 +1061,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ItemData.Item.1000022</t>
+          <t>ItemData.Item.1000021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>펜던트</t>
+          <t>그라인더</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1075,12 +1075,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000007</t>
+          <t>ItemData.Item.1000022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고1</t>
+          <t>펜던트</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1089,12 +1089,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000008</t>
+          <t>LoadingData.Loading.1000007</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>로딩 내용 어쩌고 저쩌고2</t>
+          <t>로딩 내용 어쩌고 저쩌고1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1103,12 +1103,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000027</t>
+          <t>LoadingData.Loading.1000008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>솜사탕상점 로딩화면</t>
+          <t>로딩 내용 어쩌고 저쩌고2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1117,12 +1117,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000028</t>
+          <t>LoadingData.Loading.1000027</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>파우더상점 로딩화면</t>
+          <t>솜사탕상점 로딩화면</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1131,12 +1131,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LoadingData.Loading.1000029</t>
+          <t>LoadingData.Loading.1000028</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>이불상점 로딩화면</t>
+          <t>파우더상점 로딩화면</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1145,12 +1145,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.1</t>
+          <t>LoadingData.Loading.1000029</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>말걸기</t>
+          <t>이불상점 로딩화면</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1159,16 +1159,44 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+          <t>MapNpcData.MapNpcMenu.1000009.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>미니게임 시작</t>
+          <t>말걸기</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000009.2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000030.1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>말걸기</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,6 +1198,20 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MapNpcData.MapNpcMenu.1000031.1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>미니게임 시작</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/_meta/LocalData.xlsx
+++ b/data/_meta/LocalData.xlsx
@@ -1201,7 +1201,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MapNpcData.MapNpcMenu.1000031.1</t>
+          <t>MapNpcData.MapStaticNpcMenu.1000031.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
